--- a/vbootcamps/images/Mail-Merge-Working-DB.xlsx
+++ b/vbootcamps/images/Mail-Merge-Working-DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nutanixinc-my.sharepoint.com/personal/john_christensen_nutanix_com/Documents/git/workshop_howto/vbootcamps/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{B2850690-E855-4C2A-AC74-460B43BF153D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A065B69F-152E-4B05-95BE-078289A534BB}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B2850690-E855-4C2A-AC74-460B43BF153D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{003EA1DA-E6E9-4A16-9D60-4D1C516A52D7}"/>
   <bookViews>
     <workbookView xWindow="-11625" yWindow="-21720" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,7 +238,7 @@
     <t>John</t>
   </si>
   <si>
-    <t>john.christensen@nutanix.com</t>
+    <t>john.doe@noemail.com</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
